--- a/数据构建/Quality数据表构建.xlsx
+++ b/数据构建/Quality数据表构建.xlsx
@@ -157,9 +157,6 @@
     <t>,(isnull(A.TotalOperatingRevenueTTM,A.OperatingRevenueTTM)-isnull(A.TotalOperatingCostTTM,A.OperatingPayoutTTM))/(A.TotalAssets_LY+A.TotalAssets) as Grossrofit2Assets</t>
   </si>
   <si>
-    <t>,A.TotalCashDiviLTM/A.NPParentCompanyOwnersTTM as PayoutRatio</t>
-  </si>
-  <si>
     <t>,(A.InterestBearDebt-A.InterestBearDebt_LY)/(D.ClosePrice*D.TotalShares) as DebtIssue2Cap</t>
   </si>
   <si>
@@ -232,6 +229,10 @@
   </si>
   <si>
     <t>ShengYunDB..Q_GrowthFactors</t>
+  </si>
+  <si>
+    <t>,A.TotalCashDiviLTM/A.NPParentCompanyOwnersTTM as PayoutRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -595,7 +596,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -605,13 +606,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -769,7 +770,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -777,7 +778,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -785,7 +786,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -793,7 +794,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -801,7 +802,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -809,7 +810,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -817,7 +818,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -825,7 +826,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -840,7 +841,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -851,18 +852,18 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -876,50 +877,50 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/数据构建/Quality数据表构建.xlsx
+++ b/数据构建/Quality数据表构建.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="ShengYunDB..V_Q_NonGrowth" sheetId="1" r:id="rId1"/>
     <sheet name="ShengYunDB..Q_GrowthFactors" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="异常检查" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="128">
   <si>
     <t>ShengYunDB..V_Q_NonGrowth</t>
   </si>
@@ -232,6 +232,223 @@
   </si>
   <si>
     <t>,A.TotalCashDiviLTM/A.NPParentCompanyOwnersTTM as PayoutRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负值检查</t>
+  </si>
+  <si>
+    <t>A.NPParentCompanyOwnersTTM</t>
+  </si>
+  <si>
+    <t>A.SEWithoutMI</t>
+  </si>
+  <si>
+    <t>,isnull(A.TotalOperatingRevenueTTM,A.OperatingRevenueTTM)/(D.ClosePrice*D.TotalShares) as S2P_LTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,A.CashEquivalents/nullif(A.TotalCurrentLiability,0) as Cash2ShortDebt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.CashEquivalents</t>
+  </si>
+  <si>
+    <t>,A.CashEquivalents/nullif(A.TotalLiability,0) as Cash2Debt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,A.CashEquivalents/(D.ClosePrice*D.TotalShares) as Cash2Cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.TotalLiability</t>
+  </si>
+  <si>
+    <t>A.NetOperateCashFlowTTM</t>
+  </si>
+  <si>
+    <t>isnull(A.TotalOperatingRevenueTTM,A.OperatingRevenueTTM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,2*A.NPParentCompanyOwnersTTM/(A.TotalAssets_LY+A.TotalAssets) as ROA_LTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,A.TotalCashDiviLTM/A.NPParentCompanyOwnersTTM as PayoutRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.TotalCashDiviLTM</t>
+  </si>
+  <si>
+    <t>A.RetainedProfit</t>
+  </si>
+  <si>
+    <t>,A.RetainedProfit/nullif(A.SEWithoutMI,0) as Retained2Book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.TotalProfitTTM</t>
+  </si>
+  <si>
+    <t>A.TotalCurrentLiability</t>
+  </si>
+  <si>
+    <t>A.SEWithoutMI_LY</t>
+  </si>
+  <si>
+    <t>A.TotalAssets_LY</t>
+  </si>
+  <si>
+    <t>A.TotalAssets</t>
+  </si>
+  <si>
+    <t>A.InterestBearDebt</t>
+  </si>
+  <si>
+    <t>A.InterestBearDebt_LY</t>
+  </si>
+  <si>
+    <t>A.NIFromOperatingTTM</t>
+  </si>
+  <si>
+    <t>A.NetProfitTTM</t>
+  </si>
+  <si>
+    <t>Profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CashFlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balance_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balance_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balance_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA_LY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RetP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE_LY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBD_LY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurDebt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPPar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,(isnull(A.TotalOperatingRevenueTTM,A.OperatingRevenueTTM)-isnull(A.TotalOperatingCostTTM,A.OperatingPayoutTTM))/(A.TotalAssets_LY+A.TotalAssets) as Grossrofit2Assets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isnull(A.TotalOperatingCostTTM,A.OperatingPayoutTTM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.NetOperateCashFlowTTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item2</t>
+  </si>
+  <si>
+    <t>Item3</t>
+  </si>
+  <si>
+    <t>Items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,(isnull(A.NPDeductNonRecurringPL,0)+isnull(A.NPDeductNonRecurringPL_LA,0)-isnull(A.NPDeductNonRecurringPL_LY,0))/nullif(A.TotalProfitTTM,0) as NPDeduct2Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -762,7 +979,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -826,7 +1043,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -840,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -932,12 +1149,901 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.75" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15" customWidth="1"/>
+    <col min="11" max="11" width="62.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.25" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(ISTEXT(VLOOKUP(C2,$K$2:$L$19,2,FALSE)),VLOOKUP(C2,$K$2:$L$19,2,FALSE),"")</f>
+        <v>NPPar</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:H2" si="0">IF(ISTEXT(VLOOKUP(D2,$K$2:$L$19,2,FALSE)),VLOOKUP(D2,$K$2:$L$19,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" t="str">
+        <f>","&amp;"case when "&amp;K2&amp;"&lt;0 then 0 else 1 end as "&amp;L2</f>
+        <v>,case when A.CashEquivalents&lt;0 then 0 else 1 end as Cash</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F26" si="1">IF(ISTEXT(VLOOKUP(C3,$K$2:$L$19,2,FALSE)),VLOOKUP(C3,$K$2:$L$19,2,FALSE),"")</f>
+        <v>SE</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G26" si="2">IF(ISTEXT(VLOOKUP(D3,$K$2:$L$19,2,FALSE)),VLOOKUP(D3,$K$2:$L$19,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H26" si="3">IF(ISTEXT(VLOOKUP(E3,$K$2:$L$19,2,FALSE)),VLOOKUP(E3,$K$2:$L$19,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N19" si="4">","&amp;"case when "&amp;K3&amp;"&lt;0 then 0 else 1 end as "&amp;L3</f>
+        <v>,case when A.TotalAssets&lt;0 then 0 else 1 end as TA</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="4"/>
+        <v>,case when A.TotalAssets_LY&lt;0 then 0 else 1 end as TA_LY</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>Rev</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="4"/>
+        <v>,case when A.RetainedProfit&lt;0 then 0 else 1 end as RetP</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>Cash</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>CurDebt</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="4"/>
+        <v>,case when A.SEWithoutMI&lt;0 then 0 else 1 end as SE</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>Cash</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>TD</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="4"/>
+        <v>,case when A.SEWithoutMI_LY&lt;0 then 0 else 1 end as SE_LY</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>Cash</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="4"/>
+        <v>,case when A.InterestBearDebt&lt;0 then 0 else 1 end as IBD</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>CFO</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="4"/>
+        <v>,case when A.InterestBearDebt_LY&lt;0 then 0 else 1 end as IBD_LY</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>TD</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>SE</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="4"/>
+        <v>,case when A.TotalCurrentLiability&lt;0 then 0 else 1 end as CurDebt</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>TD</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="4"/>
+        <v>,case when A.TotalLiability&lt;0 then 0 else 1 end as TD</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>CurDebt</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>SE</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="4"/>
+        <v>,case when A.NetOperateCashFlowTTM&lt;0 then 0 else 1 end as CFO</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="4"/>
+        <v>,case when A.TotalCashDiviLTM&lt;0 then 0 else 1 end as Div</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K14" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="4"/>
+        <v>,case when A.NetProfitTTM&lt;0 then 0 else 1 end as NP</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>NPPar</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>SE_LY</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>SE</v>
+      </c>
+      <c r="K15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="4"/>
+        <v>,case when A.NIFromOperatingTTM&lt;0 then 0 else 1 end as NIO</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>NPPar</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>TA_LY</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v>TA</v>
+      </c>
+      <c r="K16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="4"/>
+        <v>,case when A.NPParentCompanyOwnersTTM&lt;0 then 0 else 1 end as NPPar</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>CFO</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>TA_LY</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="3"/>
+        <v>TA</v>
+      </c>
+      <c r="K17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="4"/>
+        <v>,case when A.TotalProfitTTM&lt;0 then 0 else 1 end as TP</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>Rev</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>TA_LY</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="3"/>
+        <v>TA</v>
+      </c>
+      <c r="K18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="4"/>
+        <v>,case when isnull(A.TotalOperatingRevenueTTM,A.OperatingRevenueTTM)&lt;0 then 0 else 1 end as Rev</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>Div</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>NPPar</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K19" t="s">
+        <v>120</v>
+      </c>
+      <c r="L19" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="4"/>
+        <v>,case when isnull(A.TotalOperatingCostTTM,A.OperatingPayoutTTM)&lt;0 then 0 else 1 end as Cost</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>IBD</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>IBD_LY</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>RetP</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>SE</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>NIO</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>TP</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>TP</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>TP</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>NP</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>TP</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="K2:M18">
+    <sortCondition ref="M2:M18"/>
+    <sortCondition ref="K2:K18"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
